--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>649825.4638092131</v>
+        <v>655251.7292231109</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13167287.16146241</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3809475.954677902</v>
+        <v>2610015.581521714</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7221339.971199327</v>
+        <v>7733790.540019626</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.2423528839157</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>75.43264014829275</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>260.4446813871642</v>
+        <v>64.83560979773468</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>104.7223743992572</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>103.3896368814644</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
-        <v>76.64068269426186</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>112.1624125910794</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1190,7 +1192,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>120.3033580771449</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>398.014458165688</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.853915579224545</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429399</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1619,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>16.68292741051788</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>238.0522523942376</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429399</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>276.2660466995658</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>162.3923313037388</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>146.3034971231916</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2254,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>125.4203831793923</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>154.1156291734915</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2476,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>114.3378749226323</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>111.2283352494636</v>
       </c>
     </row>
     <row r="26">
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>168.9733955350583</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2953,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.68628532417711</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3038,7 +3040,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -3199,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>19.85902767342632</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3436,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>210.0371572101193</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>169.8146376940576</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>156.3950745845505</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>175.06241347625</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474193</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>225.3050538711089</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>300.9631070060631</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>234.0872394605576</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.02781544003311</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4195,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2457.455301004815</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="C2" t="n">
-        <v>2030.554571018115</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="D2" t="n">
-        <v>1645.461285276786</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="E2" t="n">
-        <v>1219.484345424644</v>
+        <v>857.7971232506694</v>
       </c>
       <c r="F2" t="n">
-        <v>794.3601636140438</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>390.0211012034924</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>92.15272267752728</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>419.859310237894</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>872.0684339941258</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>872.0684339941258</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>1580.609595328982</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1580.609595328982</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O2" t="n">
-        <v>2289.150756663838</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2289.150756663838</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2745.236236168022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2862.792571049924</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2862.792571049924</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2862.792571049924</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>2862.792571049924</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.792571049924</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X2" t="n">
-        <v>2862.792571049924</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y2" t="n">
-        <v>2457.455301004815</v>
+        <v>1283.774063102812</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>204.6857164410849</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>765.7970127558548</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M3" t="n">
-        <v>1474.338174090711</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1474.338174090711</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>1474.338174090711</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1665.792097901309</v>
+        <v>812.0213048561992</v>
       </c>
       <c r="C4" t="n">
-        <v>1493.819534780225</v>
+        <v>640.0487417351152</v>
       </c>
       <c r="D4" t="n">
-        <v>1330.502761906996</v>
+        <v>476.7319688618859</v>
       </c>
       <c r="E4" t="n">
-        <v>1164.294556059849</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="F4" t="n">
-        <v>992.4327818344095</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G4" t="n">
-        <v>826.1758121286416</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>682.379543636796</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>682.379543636796</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>739.870871860954</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>966.3984730667912</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1321.087794361212</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1712.273589331463</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>2089.765100207499</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2445.193228887262</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2735.792440809163</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2862.792571049924</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>2862.792571049924</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>2862.792571049924</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="V4" t="n">
-        <v>2599.717135305314</v>
+        <v>1745.946342260205</v>
       </c>
       <c r="W4" t="n">
-        <v>2324.864731477827</v>
+        <v>1471.093938432718</v>
       </c>
       <c r="X4" t="n">
-        <v>2082.300834923632</v>
+        <v>1228.530041878523</v>
       </c>
       <c r="Y4" t="n">
-        <v>1855.958066613375</v>
+        <v>1002.187273568265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1607.880094983115</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C5" t="n">
-        <v>1607.880094983115</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D5" t="n">
-        <v>1184.587474168115</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E5" t="n">
-        <v>1184.587474168115</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="F5" t="n">
-        <v>759.463292357515</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>355.1242299469637</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>57.25585142099849</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>419.859310237894</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>1128.40047157275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1128.40047157275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1128.40047157275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1128.40047157275</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1580.871477505911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2289.150756663838</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2745.236236168022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2758.425276923065</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2537.499705967698</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2433.065729319754</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2433.065729319754</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>2433.065729319754</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X5" t="n">
-        <v>2433.065729319754</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y5" t="n">
-        <v>2027.728459274645</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.6857164410849</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>647.7407779893381</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>647.7407779893381</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1157.402320666652</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1157.402320666652</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1865.943482001508</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1040.668405685511</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>868.6958425644273</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>705.379069691198</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>539.1708638440515</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>367.3090896186119</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>201.0521199128441</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>57.25585142099849</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2190.6302655213</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2020.495218040435</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1777.155870266335</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1777.155870266335</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1777.155870266335</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1699.74103926203</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1457.177142707835</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1230.834374397577</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.1776344748271</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C8" t="n">
-        <v>517.2769044881271</v>
+        <v>1672.730311824775</v>
       </c>
       <c r="D8" t="n">
-        <v>517.2769044881271</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="E8" t="n">
-        <v>517.2769044881271</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F8" t="n">
-        <v>92.15272267752728</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G8" t="n">
-        <v>92.15272267752728</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H8" t="n">
-        <v>92.15272267752728</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>419.859310237894</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K8" t="n">
-        <v>1128.40047157275</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L8" t="n">
-        <v>1698.427812387813</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M8" t="n">
-        <v>1698.427812387813</v>
+        <v>2675.929512661871</v>
       </c>
       <c r="N8" t="n">
-        <v>1698.427812387813</v>
+        <v>3652.180571148572</v>
       </c>
       <c r="O8" t="n">
-        <v>1698.427812387813</v>
+        <v>3652.180571148572</v>
       </c>
       <c r="P8" t="n">
-        <v>2406.707091545741</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>2758.425276923065</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T8" t="n">
-        <v>2537.499705967698</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U8" t="n">
-        <v>2279.14479656411</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V8" t="n">
-        <v>2157.626253051842</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W8" t="n">
-        <v>1761.23490335219</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X8" t="n">
-        <v>1349.514904519937</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y8" t="n">
-        <v>944.1776344748271</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M9" t="n">
-        <v>765.7970127558548</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N9" t="n">
-        <v>1474.338174090711</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1140.436973945235</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C10" t="n">
-        <v>968.4644108241513</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D10" t="n">
-        <v>805.147637950922</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E10" t="n">
-        <v>638.9394321037755</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F10" t="n">
-        <v>467.077657878336</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G10" t="n">
-        <v>300.8206881725681</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0244196807225</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I10" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V10" t="n">
-        <v>2074.362011349241</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W10" t="n">
-        <v>1799.509607521754</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X10" t="n">
-        <v>1556.945710967559</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y10" t="n">
-        <v>1330.602942657301</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2460.757764821957</v>
+        <v>2192.842731881123</v>
       </c>
       <c r="C11" t="n">
-        <v>2033.857034835257</v>
+        <v>1765.942001894423</v>
       </c>
       <c r="D11" t="n">
-        <v>1610.564414020257</v>
+        <v>1342.649381079424</v>
       </c>
       <c r="E11" t="n">
-        <v>1184.587474168115</v>
+        <v>916.6724412272812</v>
       </c>
       <c r="F11" t="n">
-        <v>759.463292357515</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G11" t="n">
-        <v>355.1242299469637</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K11" t="n">
-        <v>765.7970127558548</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L11" t="n">
-        <v>765.7970127558548</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M11" t="n">
-        <v>1328.153913498309</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N11" t="n">
-        <v>2036.695074833165</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O11" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P11" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q11" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T11" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U11" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V11" t="n">
-        <v>2862.792571049924</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.792571049924</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X11" t="n">
-        <v>2862.792571049924</v>
+        <v>3018.028366217763</v>
       </c>
       <c r="Y11" t="n">
-        <v>2862.792571049924</v>
+        <v>2612.691096172653</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M12" t="n">
-        <v>765.7970127558548</v>
+        <v>816.6830146357811</v>
       </c>
       <c r="N12" t="n">
-        <v>1474.338174090711</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281.3349169706623</v>
+        <v>358.3268758686206</v>
       </c>
       <c r="C13" t="n">
-        <v>109.3623538495783</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="D13" t="n">
-        <v>57.25585142099849</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="E13" t="n">
-        <v>57.25585142099849</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="F13" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2190.6302655213</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2020.495218040435</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T13" t="n">
-        <v>1777.155870266335</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U13" t="n">
-        <v>1496.971421766639</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V13" t="n">
-        <v>1215.259954374668</v>
+        <v>1292.251913272626</v>
       </c>
       <c r="W13" t="n">
-        <v>940.4075505471808</v>
+        <v>1017.399509445139</v>
       </c>
       <c r="X13" t="n">
-        <v>697.8436539929859</v>
+        <v>774.8356128909442</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5008856827279</v>
+        <v>548.4928445806862</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1793.447195141969</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C14" t="n">
-        <v>1366.546465155269</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D14" t="n">
-        <v>943.2538443402696</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E14" t="n">
-        <v>517.2769044881271</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F14" t="n">
-        <v>92.15272267752728</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G14" t="n">
-        <v>92.15272267752728</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H14" t="n">
-        <v>92.15272267752728</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K14" t="n">
-        <v>737.1690870453554</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L14" t="n">
-        <v>737.1690870453554</v>
+        <v>1016.834244625407</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.710248380212</v>
+        <v>2021.120346044465</v>
       </c>
       <c r="N14" t="n">
-        <v>2154.251409715068</v>
+        <v>2997.371404531166</v>
       </c>
       <c r="O14" t="n">
-        <v>2862.792571049924</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="P14" t="n">
-        <v>2862.792571049924</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q14" t="n">
-        <v>2862.792571049924</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>2845.941129221118</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T14" t="n">
-        <v>2625.015558265752</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U14" t="n">
-        <v>2625.015558265752</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="V14" t="n">
-        <v>2625.015558265752</v>
+        <v>4002.97043543275</v>
       </c>
       <c r="W14" t="n">
-        <v>2625.015558265752</v>
+        <v>3762.51361483251</v>
       </c>
       <c r="X14" t="n">
-        <v>2213.295559433499</v>
+        <v>3350.793616000257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2213.295559433499</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M15" t="n">
-        <v>765.7970127558548</v>
+        <v>816.6830146357811</v>
       </c>
       <c r="N15" t="n">
-        <v>1157.402320666652</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>281.3349169706623</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C16" t="n">
-        <v>109.3623538495783</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D16" t="n">
-        <v>57.25585142099849</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E16" t="n">
-        <v>57.25585142099849</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F16" t="n">
-        <v>57.25585142099849</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G16" t="n">
-        <v>57.25585142099849</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H16" t="n">
-        <v>57.25585142099849</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I16" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2190.6302655213</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S16" t="n">
-        <v>2020.495218040435</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="T16" t="n">
-        <v>1777.155870266335</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="U16" t="n">
-        <v>1496.971421766639</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="V16" t="n">
-        <v>1215.259954374668</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W16" t="n">
-        <v>940.4075505471808</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X16" t="n">
-        <v>697.8436539929859</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5008856827279</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1758.55032388544</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>1331.64959389874</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>908.3569730837407</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>482.3800332315983</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>57.25585142099849</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>57.25585142099849</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>57.25585142099849</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>57.25585142099849</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>765.7970127558548</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>765.7970127558548</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1474.338174090711</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>1474.338174090711</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>1698.427812387813</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>2406.707091545741</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>2862.792571049924</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>2862.792571049924</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>2862.792571049924</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2862.792571049924</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2862.792571049924</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2583.73595822208</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2178.398688176971</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>624.3793424524537</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>506.8734389699584</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>403.0334804852435</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>298.3315467581807</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>204.6857164410849</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>110.6319446586889</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>448.8611593317958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1157.402320666652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1157.402320666652</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1784.619234562763</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1642.739298860441</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1457.971102780078</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1252.997963919344</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1056.476586752561</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>892.999240519224</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.3063518725164</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1140.436973945235</v>
+        <v>1077.775362431822</v>
       </c>
       <c r="C19" t="n">
-        <v>968.4644108241513</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>805.147637950922</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>638.9394321037755</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>467.077657878336</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>300.8206881725681</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0244196807225</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>114.7471796451565</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>341.2747808509937</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>695.9641021454145</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1087.149897115665</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1464.641407991701</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1820.069536671464</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2110.668748593365</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2237.668878834127</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2190.6302655213</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2190.6302655213</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1947.2909177472</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1947.2909177472</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1947.2909177472</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W19" t="n">
-        <v>1799.509607521754</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X19" t="n">
-        <v>1556.945710967559</v>
+        <v>1267.941331143888</v>
       </c>
       <c r="Y19" t="n">
-        <v>1330.602942657301</v>
+        <v>1267.941331143888</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5837,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5938,22 +5940,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>2039.376393044857</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V22" t="n">
-        <v>1757.664925652886</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.664925652886</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>3272.792622950885</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>3272.792622950885</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3272.792622950885</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>1992.33777973203</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V25" t="n">
-        <v>1992.33777973203</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W25" t="n">
-        <v>1717.485375904543</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>3462.95859166295</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F27" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L27" t="n">
-        <v>730.647150085061</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M27" t="n">
-        <v>730.647150085061</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U27" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V27" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W27" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G28" t="n">
         <v>345.8675501573982</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3611.022155777737</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C31" t="n">
-        <v>3439.049592656653</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D31" t="n">
-        <v>3439.049592656653</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E31" t="n">
-        <v>3272.841386809506</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>3100.979612584067</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5069.998008347814</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5069.998008347814</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>4826.658660573714</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>4826.658660573714</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V31" t="n">
-        <v>4544.947193181742</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W31" t="n">
-        <v>4270.094789354255</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X31" t="n">
-        <v>4027.53089280006</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y31" t="n">
-        <v>3801.188124489802</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6734,16 +6736,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6783,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3619.314716995755</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C34" t="n">
-        <v>3447.342153874671</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D34" t="n">
-        <v>3284.025381001441</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E34" t="n">
-        <v>3117.817175154295</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F34" t="n">
-        <v>2945.955400928855</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791732</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>4553.23975439976</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W34" t="n">
-        <v>4278.387350572273</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X34" t="n">
-        <v>4035.823454018078</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y34" t="n">
-        <v>3809.48068570782</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>919.4582979645735</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>747.4857348434895</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>584.1689619702602</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>417.9607561231137</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1853.383335368579</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.530931541092</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>1335.967034986897</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1109.624266676639</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7363,19 +7365,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1257.245204735046</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2369.673452564204</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>1942.772722577504</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1519.480101762505</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1093.503161910362</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>668.3789800997622</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>264.0399176892108</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N41" t="n">
-        <v>3561.711740982687</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O41" t="n">
-        <v>4406.8563911335</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4002.97043543275</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3606.579085733097</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3194.859086900844</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2789.521816855734</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3873.571530742373</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>3756.065627259878</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>3652.225668775163</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>3547.523735048101</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>3453.877904731005</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>3359.824132948609</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>3306.448039710919</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>3306.448039710919</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J42" t="n">
-        <v>3306.448039710919</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>3306.448039710919</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L42" t="n">
-        <v>3306.448039710919</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M42" t="n">
-        <v>4025.820723818557</v>
+        <v>816.6830146357811</v>
       </c>
       <c r="N42" t="n">
-        <v>5115.135670291427</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O42" t="n">
-        <v>5115.135670291427</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P42" t="n">
-        <v>5115.135670291427</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q42" t="n">
-        <v>5115.135670291427</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R42" t="n">
-        <v>5115.135670291427</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>5033.811422852682</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>4891.93148715036</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>4707.163291069997</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>4502.190152209264</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>4305.668775042481</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>4142.191428809144</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>4002.498540162436</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>850.1944999357522</v>
+        <v>422.4985330004433</v>
       </c>
       <c r="C43" t="n">
-        <v>850.1944999357522</v>
+        <v>250.5259698793593</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>87.20919700613</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>87.20919700613</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T43" t="n">
-        <v>2065.542080025265</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U43" t="n">
-        <v>1785.357631525569</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V43" t="n">
-        <v>1557.7767690295</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W43" t="n">
-        <v>1282.924365202013</v>
+        <v>970.3608961323123</v>
       </c>
       <c r="X43" t="n">
-        <v>1040.360468647818</v>
+        <v>727.7969995781174</v>
       </c>
       <c r="Y43" t="n">
-        <v>1040.360468647818</v>
+        <v>501.4542312678594</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1525.264031990706</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C44" t="n">
-        <v>1098.363302004007</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.363302004007</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E44" t="n">
-        <v>1098.363302004007</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F44" t="n">
-        <v>794.3601636140438</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G44" t="n">
-        <v>390.0211012034924</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H44" t="n">
-        <v>92.15272267752728</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5272726592696</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>163.5272726592696</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="M44" t="n">
-        <v>872.0684339941258</v>
+        <v>1374.699383006876</v>
       </c>
       <c r="N44" t="n">
-        <v>1580.609595328982</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="O44" t="n">
-        <v>2289.150756663838</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P44" t="n">
-        <v>2289.150756663838</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q44" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>2758.425276923065</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T44" t="n">
-        <v>2537.499705967698</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U44" t="n">
-        <v>2279.14479656411</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="V44" t="n">
-        <v>1921.655381690359</v>
+        <v>4124.008093275634</v>
       </c>
       <c r="W44" t="n">
-        <v>1525.264031990706</v>
+        <v>3727.61674357598</v>
       </c>
       <c r="X44" t="n">
-        <v>1525.264031990706</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.264031990706</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>64.70249438291033</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3999836625014</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>336.3999836625014</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L45" t="n">
-        <v>336.3999836625014</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M45" t="n">
-        <v>1044.941144997358</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N45" t="n">
-        <v>1157.402320666652</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.7533932624582</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C46" t="n">
-        <v>386.7808301413742</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D46" t="n">
-        <v>223.4640572681449</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E46" t="n">
-        <v>57.25585142099849</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G46" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H46" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I46" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2193.196337985608</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2023.061290504743</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T46" t="n">
-        <v>1779.721942730643</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U46" t="n">
-        <v>1499.537494230948</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V46" t="n">
-        <v>1217.826026838977</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W46" t="n">
-        <v>1217.826026838977</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X46" t="n">
-        <v>975.2621302847817</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y46" t="n">
-        <v>748.9193619745238</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>492.5414934778718</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>753.1294056619129</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>753.0891021185053</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>738.2132294767107</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>738.7949232748091</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>417.331758286442</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>751.4627435572904</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O5" t="n">
-        <v>494.4323794905295</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>537.9064195803219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O6" t="n">
-        <v>738.8700324847033</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>751.4627435572904</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>614.0972351751109</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>990.5494043751546</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8471,7 +8473,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8538,13 +8540,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>738.7949232748091</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N9" t="n">
-        <v>737.0411709760227</v>
+        <v>781.6471621574455</v>
       </c>
       <c r="O9" t="n">
-        <v>418.7328068038355</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8690,19 +8692,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>751.4627435572904</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>605.4685363766583</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>753.0891021185053</v>
+        <v>691.5123106689887</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7949232748091</v>
+        <v>759.9390205422786</v>
       </c>
       <c r="N12" t="n">
-        <v>737.0411709760227</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O12" t="n">
-        <v>418.7328068038355</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>722.5456468800182</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>753.0891021185053</v>
+        <v>834.8117991431438</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7949232748091</v>
+        <v>759.9390205422786</v>
       </c>
       <c r="N15" t="n">
-        <v>416.9039452951551</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O15" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>751.4627435572904</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>263.7441293530972</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>418.076003795843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7949232748091</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9638,13 +9640,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9875,16 +9877,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>998.750394705596</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9893,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,22 +9959,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10671,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>136.0326064801326</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N38" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10841,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11069,13 +11071,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>691.5123106689887</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11145,10 +11147,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685286</v>
+        <v>759.9390205422786</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>143.1094707324569</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>753.1294056619129</v>
+        <v>248.9246156351402</v>
       </c>
       <c r="N44" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>753.0891021185053</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7949232748091</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>134.940175354243</v>
+        <v>781.6471621574455</v>
       </c>
       <c r="O45" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -22547,16 +22549,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>37.81734172293397</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>345.440299844201</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -22613,7 +22615,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>18.44967133088716</v>
+        <v>214.0587429203167</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>316.1505655932366</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>152.3817234280874</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
-        <v>195.4631970949503</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>310.4693100957534</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -23033,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>233.6111626478681</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.63542248292674</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>402.7488832647057</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.64069377507312</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>154.375183808419</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>131.3367521443644</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7.860506186134387</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>125.8003826660205</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>86.02262841516139</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>125.8003826660206</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>112.8510053776918</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>19.29091348988666</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.881941855521475</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>252.2448521157858</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -25369,10 +25371,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>68.85719550793209</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>119.8272812644555</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>53.58929884694251</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>119.9098329864307</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>119.8272812644554</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.540411739665473</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514214.7853550914</v>
+        <v>448942.3074952711</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514214.7853550912</v>
+        <v>448942.3074952713</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514214.7853550913</v>
+        <v>667466.5760535755</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514214.7853550913</v>
+        <v>667466.5760535755</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514214.7853550913</v>
+        <v>667466.5760535754</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514214.7853550913</v>
+        <v>744690.2841571176</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744690.2841571176</v>
+        <v>744690.2841571177</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744690.2841571176</v>
+        <v>744690.2841571177</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744690.2841571176</v>
+        <v>744690.2841571177</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744690.2841571176</v>
+        <v>744690.2841571177</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>744690.2841571176</v>
+        <v>667466.5760535754</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514214.7853550912</v>
+        <v>667466.5760535754</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164936.8179440859</v>
+        <v>144000.362781502</v>
       </c>
       <c r="C2" t="n">
-        <v>164936.8179440859</v>
+        <v>144000.3627815021</v>
       </c>
       <c r="D2" t="n">
-        <v>164936.8179440858</v>
+        <v>214093.0526964297</v>
       </c>
       <c r="E2" t="n">
-        <v>164936.8179440859</v>
+        <v>214093.0526964298</v>
       </c>
       <c r="F2" t="n">
-        <v>164936.8179440859</v>
+        <v>214093.0526964299</v>
       </c>
       <c r="G2" t="n">
-        <v>164936.8179440858</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="H2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="I2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="J2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.921333415</v>
       </c>
       <c r="K2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="L2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.921333415</v>
       </c>
       <c r="M2" t="n">
         <v>238862.9213334151</v>
@@ -26350,10 +26352,10 @@
         <v>238862.9213334151</v>
       </c>
       <c r="O2" t="n">
-        <v>238862.9213334151</v>
+        <v>214093.0526964298</v>
       </c>
       <c r="P2" t="n">
-        <v>164936.8179440858</v>
+        <v>214093.0526964297</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239846.908696991</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
-        <v>151925.6098158127</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187258.1248649466</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.8469561772592</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="C4" t="n">
-        <v>533.8469561772592</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="D4" t="n">
-        <v>533.8469561772594</v>
+        <v>710.8621518139971</v>
       </c>
       <c r="E4" t="n">
-        <v>533.8469561772594</v>
+        <v>710.8621518139971</v>
       </c>
       <c r="F4" t="n">
-        <v>533.8469561772594</v>
+        <v>710.8621518139972</v>
       </c>
       <c r="G4" t="n">
-        <v>533.8469561772592</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
         <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>800.060259943367</v>
+        <v>710.8621518139971</v>
       </c>
       <c r="P4" t="n">
-        <v>533.8469561772592</v>
+        <v>710.8621518139971</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>77142.04707995884</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
-        <v>43514.44707995885</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152585.9847890412</v>
+        <v>-110309.0749209309</v>
       </c>
       <c r="C6" t="n">
-        <v>87260.92390794982</v>
+        <v>76095.65849380635</v>
       </c>
       <c r="D6" t="n">
-        <v>87260.92390794973</v>
+        <v>-52365.76441712302</v>
       </c>
       <c r="E6" t="n">
-        <v>120888.5239079498</v>
+        <v>147103.200819957</v>
       </c>
       <c r="F6" t="n">
-        <v>120888.5239079498</v>
+        <v>147103.2008199571</v>
       </c>
       <c r="G6" t="n">
-        <v>120888.5239079497</v>
+        <v>108601.4683548999</v>
       </c>
       <c r="H6" t="n">
-        <v>8387.189069229396</v>
+        <v>160312.7988850421</v>
       </c>
       <c r="I6" t="n">
         <v>160312.7988850421</v>
       </c>
       <c r="J6" t="n">
-        <v>-26945.32597990456</v>
+        <v>14779.12895022548</v>
       </c>
       <c r="K6" t="n">
         <v>160312.7988850421</v>
       </c>
       <c r="L6" t="n">
+        <v>25190.76634080028</v>
+      </c>
+      <c r="M6" t="n">
+        <v>160312.798885042</v>
+      </c>
+      <c r="N6" t="n">
         <v>160312.7988850421</v>
       </c>
-      <c r="M6" t="n">
-        <v>160312.7988850421</v>
-      </c>
-      <c r="N6" t="n">
-        <v>160312.798885042</v>
-      </c>
       <c r="O6" t="n">
-        <v>160312.798885042</v>
+        <v>147103.200819957</v>
       </c>
       <c r="P6" t="n">
-        <v>120888.5239079497</v>
+        <v>147103.200819957</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
-        <v>715.6981427624811</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.698142762481</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>456.7768926830624</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>715.6981427624811</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>395.5609170816133</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O5" t="n">
-        <v>457.0414201345054</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>514.8096390679939</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="O6" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>715.6981427624811</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>575.785192742488</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>953.1181414757228</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>715.6981427624811</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N9" t="n">
-        <v>715.6981427624811</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="O9" t="n">
-        <v>395.5609170816133</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>715.6981427624811</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>568.0372734772266</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>715.6981427624811</v>
+        <v>654.1213513129646</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.6981427624811</v>
+        <v>736.8422400299506</v>
       </c>
       <c r="N12" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O12" t="n">
-        <v>395.5609170816133</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>686.7810460852089</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>715.6981427624811</v>
+        <v>797.4208397871197</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>715.6981427624811</v>
+        <v>736.8422400299506</v>
       </c>
       <c r="N15" t="n">
-        <v>395.5609170816134</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O15" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>715.6981427624811</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>226.353169997073</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.6981427624811</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>961.47077187115</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36613,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>114.689578266591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N38" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37561,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>654.1213513129646</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562006</v>
+        <v>736.8422400299506</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>107.3448699376475</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>715.6981427624811</v>
+        <v>211.4933527357084</v>
       </c>
       <c r="N44" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>715.6981427624811</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>715.6981427624811</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>113.5971471407014</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="O45" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655251.7292231109</v>
+        <v>653098.4954187769</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2610015.581521714</v>
+        <v>2610015.581521715</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7733790.540019626</v>
+        <v>7733790.540019625</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>75.43264014829275</v>
+        <v>89.02551250653708</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>64.83560979773468</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>104.7223743992572</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -955,16 +955,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>5.727212628260347</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>7.441938898131447</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1135,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>112.1624125910794</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>294.4283053268139</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1186,7 +1186,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1198,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.0530742974262</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>278.7832978298484</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>4.853915579224545</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>98.15366458399249</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>238.0522523942376</v>
+        <v>269.9268366878463</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>162.3923313037388</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>125.4203831793923</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2478,13 +2478,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.2283352494636</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.9733955350583</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>144.0596678020106</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>19.85902767342632</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3681,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.3950745845505</v>
+        <v>164.535913468571</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>175.06241347625</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>272.6001549382016</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.16614128474193</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.774063102812</v>
+        <v>996.9515396389406</v>
       </c>
       <c r="C2" t="n">
-        <v>1283.774063102812</v>
+        <v>996.9515396389406</v>
       </c>
       <c r="D2" t="n">
-        <v>1283.774063102812</v>
+        <v>573.6589188239409</v>
       </c>
       <c r="E2" t="n">
-        <v>857.7971232506694</v>
+        <v>573.6589188239409</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4333,7 +4333,7 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
         <v>595.1637600336857</v>
@@ -4342,40 +4342,40 @@
         <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002562</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1283.774063102812</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X2" t="n">
-        <v>1283.774063102812</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1283.774063102812</v>
+        <v>1416.799903930471</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
         <v>1853.185855629757</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>812.0213048561992</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.0487417351152</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D4" t="n">
-        <v>476.7319688618859</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E4" t="n">
-        <v>310.5237630147394</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4521,19 +4521,19 @@
         <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1811.436857207411</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.946342260205</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1471.093938432718</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>1228.530041878523</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1002.187273568265</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.3827134031587</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="C5" t="n">
-        <v>887.3827134031587</v>
+        <v>803.240414683884</v>
       </c>
       <c r="D5" t="n">
-        <v>887.3827134031587</v>
+        <v>803.240414683884</v>
       </c>
       <c r="E5" t="n">
-        <v>887.3827134031587</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G5" t="n">
         <v>377.2634748317415</v>
@@ -4567,19 +4567,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
         <v>2224.911252462377</v>
@@ -4603,16 +4603,16 @@
         <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>1635.478414715693</v>
       </c>
       <c r="W5" t="n">
-        <v>887.3827134031587</v>
+        <v>1635.478414715693</v>
       </c>
       <c r="X5" t="n">
-        <v>887.3827134031587</v>
+        <v>1635.478414715693</v>
       </c>
       <c r="Y5" t="n">
-        <v>887.3827134031587</v>
+        <v>1230.141144670584</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>720.7977379486855</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2217.394142464263</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1974.054794690163</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1693.870346190467</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1412.158878798496</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.02567807839</v>
+        <v>2418.671247866009</v>
       </c>
       <c r="C8" t="n">
-        <v>1672.730311824775</v>
+        <v>1991.770517879309</v>
       </c>
       <c r="D8" t="n">
-        <v>1249.437691009775</v>
+        <v>1568.47789706431</v>
       </c>
       <c r="E8" t="n">
-        <v>1249.437691009775</v>
+        <v>1142.500957212167</v>
       </c>
       <c r="F8" t="n">
-        <v>824.3135091991753</v>
+        <v>717.3767754015673</v>
       </c>
       <c r="G8" t="n">
         <v>419.9744467886239</v>
@@ -4804,25 +4804,25 @@
         <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K8" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L8" t="n">
-        <v>1732.342552600906</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M8" t="n">
-        <v>2675.929512661871</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N8" t="n">
-        <v>3652.180571148572</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="O8" t="n">
-        <v>3652.180571148572</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="P8" t="n">
-        <v>4360.4598503065</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q8" t="n">
         <v>4360.4598503065</v>
@@ -4834,22 +4834,22 @@
         <v>4256.09255617964</v>
       </c>
       <c r="T8" t="n">
-        <v>4035.166985224274</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="U8" t="n">
-        <v>3776.812075820686</v>
+        <v>3997.737646776052</v>
       </c>
       <c r="V8" t="n">
-        <v>3419.322660946936</v>
+        <v>3640.248231902302</v>
       </c>
       <c r="W8" t="n">
-        <v>3022.931311247283</v>
+        <v>3243.856882202649</v>
       </c>
       <c r="X8" t="n">
-        <v>2611.21131241503</v>
+        <v>3243.856882202649</v>
       </c>
       <c r="Y8" t="n">
-        <v>2205.874042369921</v>
+        <v>2838.51961215754</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J9" t="n">
-        <v>87.20919700613</v>
+        <v>342.9003024652357</v>
       </c>
       <c r="K9" t="n">
-        <v>87.20919700613</v>
+        <v>342.9003024652357</v>
       </c>
       <c r="L9" t="n">
-        <v>87.20919700613</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="M9" t="n">
-        <v>1143.195734982175</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="N9" t="n">
-        <v>1895.89682758664</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="O9" t="n">
-        <v>1895.89682758664</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P9" t="n">
         <v>1895.89682758664</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1170.390319530367</v>
+        <v>735.3324152763295</v>
       </c>
       <c r="C10" t="n">
-        <v>998.4177564092828</v>
+        <v>735.3324152763295</v>
       </c>
       <c r="D10" t="n">
-        <v>835.1009835360535</v>
+        <v>735.3324152763295</v>
       </c>
       <c r="E10" t="n">
-        <v>668.892777688907</v>
+        <v>569.124209429183</v>
       </c>
       <c r="F10" t="n">
-        <v>497.0310034634675</v>
+        <v>397.2624352037435</v>
       </c>
       <c r="G10" t="n">
-        <v>330.7740337576996</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="H10" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I10" t="n">
         <v>87.20919700613</v>
@@ -4989,25 +4989,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2267.622224419258</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T10" t="n">
-        <v>2267.622224419258</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.622224419258</v>
+        <v>1950.968920072306</v>
       </c>
       <c r="V10" t="n">
-        <v>2104.315356934372</v>
+        <v>1669.257452680335</v>
       </c>
       <c r="W10" t="n">
-        <v>1829.462953106885</v>
+        <v>1394.405048852848</v>
       </c>
       <c r="X10" t="n">
-        <v>1586.89905655269</v>
+        <v>1151.841152298653</v>
       </c>
       <c r="Y10" t="n">
-        <v>1360.556288242432</v>
+        <v>925.4983839883951</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2192.842731881123</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C11" t="n">
-        <v>1765.942001894423</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.649381079424</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E11" t="n">
-        <v>916.6724412272812</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F11" t="n">
-        <v>491.5482594166814</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G11" t="n">
-        <v>87.20919700613</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H11" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
         <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L11" t="n">
-        <v>1732.342552600906</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M11" t="n">
-        <v>2736.628654019964</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N11" t="n">
-        <v>3712.879712506665</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O11" t="n">
         <v>4360.4598503065</v>
@@ -5074,19 +5074,19 @@
         <v>4035.166985224274</v>
       </c>
       <c r="U11" t="n">
-        <v>3776.812075820686</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="V11" t="n">
-        <v>3419.322660946936</v>
+        <v>3753.567694487053</v>
       </c>
       <c r="W11" t="n">
-        <v>3022.931311247283</v>
+        <v>3357.1763447874</v>
       </c>
       <c r="X11" t="n">
-        <v>3018.028366217763</v>
+        <v>2945.456345955147</v>
       </c>
       <c r="Y11" t="n">
-        <v>2612.691096172653</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J12" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K12" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="L12" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="M12" t="n">
-        <v>816.6830146357811</v>
+        <v>1150.642377944087</v>
       </c>
       <c r="N12" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="O12" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="P12" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q12" t="n">
         <v>1895.89682758664</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>358.3268758686206</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C13" t="n">
-        <v>186.3543127475366</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D13" t="n">
-        <v>186.3543127475366</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E13" t="n">
-        <v>186.3543127475366</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F13" t="n">
         <v>87.20919700613</v>
@@ -5226,25 +5226,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.487176938393</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T13" t="n">
-        <v>1854.147829164293</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.963380664597</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.251913272626</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.399509445139</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X13" t="n">
-        <v>774.8356128909442</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y13" t="n">
-        <v>548.4928445806862</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="14">
@@ -5278,43 +5278,43 @@
         <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K14" t="n">
-        <v>87.20919700613</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L14" t="n">
-        <v>1016.834244625407</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M14" t="n">
-        <v>2021.120346044465</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N14" t="n">
-        <v>2997.371404531166</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O14" t="n">
-        <v>3786.818035920414</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P14" t="n">
-        <v>3786.818035920414</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q14" t="n">
-        <v>4242.903515424598</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R14" t="n">
         <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>4360.4598503065</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>4360.4598503065</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>4360.4598503065</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="V14" t="n">
-        <v>4002.97043543275</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="W14" t="n">
         <v>3762.51361483251</v>
@@ -5354,22 +5354,22 @@
         <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J15" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K15" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="L15" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="M15" t="n">
-        <v>816.6830146357811</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="N15" t="n">
-        <v>1895.89682758664</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O15" t="n">
         <v>1895.89682758664</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C16" t="n">
-        <v>998.4177564092828</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D16" t="n">
-        <v>835.1009835360535</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E16" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F16" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G16" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
         <v>87.20919700613</v>
@@ -5460,28 +5460,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2220.583611106431</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T16" t="n">
-        <v>2220.583611106431</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U16" t="n">
-        <v>2220.583611106431</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V16" t="n">
-        <v>2104.315356934372</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W16" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X16" t="n">
-        <v>1586.89905655269</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y16" t="n">
-        <v>1360.556288242432</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5545,7 +5545,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1077.775362431822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1785.357631525569</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1510.505227698082</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1267.941331143888</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1267.941331143888</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1836.029442462118</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3272.792622950885</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3272.792622950885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3272.792622950885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3462.95859166295</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>4362.434577686964</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345.8675501573982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.68756743822</v>
+        <v>418.0715450187581</v>
       </c>
       <c r="C34" t="n">
-        <v>869.7150043171358</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="D34" t="n">
-        <v>706.3982314439065</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E34" t="n">
-        <v>540.1900255967601</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.81982492729</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1700.760201014738</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1458.196304460543</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1231.853536150285</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7016,28 +7016,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>223.2920388516654</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1112.773316863137</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7183,16 +7183,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7253,28 +7253,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>1165.735894343786</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7368,16 +7368,16 @@
         <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>2002.531292319261</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1554.621932534794</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>1312.058035980599</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>1085.715267670341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2369.673452564204</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C41" t="n">
-        <v>1942.772722577504</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D41" t="n">
-        <v>1519.480101762505</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E41" t="n">
-        <v>1093.503161910362</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F41" t="n">
-        <v>668.3789800997622</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G41" t="n">
-        <v>264.0399176892108</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H41" t="n">
         <v>87.20919700613</v>
@@ -7411,22 +7411,22 @@
         <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>1732.342552600906</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="M41" t="n">
-        <v>2736.628654019964</v>
+        <v>2169.607065217583</v>
       </c>
       <c r="N41" t="n">
-        <v>3712.879712506665</v>
+        <v>3145.858123704284</v>
       </c>
       <c r="O41" t="n">
-        <v>4360.4598503065</v>
+        <v>3991.002773855096</v>
       </c>
       <c r="P41" t="n">
         <v>4360.4598503065</v>
@@ -7450,13 +7450,13 @@
         <v>4002.97043543275</v>
       </c>
       <c r="W41" t="n">
-        <v>3606.579085733097</v>
+        <v>3727.61674357598</v>
       </c>
       <c r="X41" t="n">
-        <v>3194.859086900844</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="Y41" t="n">
-        <v>2789.521816855734</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J42" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K42" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="L42" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="M42" t="n">
-        <v>816.6830146357811</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="N42" t="n">
-        <v>1895.89682758664</v>
+        <v>1445.567142198492</v>
       </c>
       <c r="O42" t="n">
         <v>1895.89682758664</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>422.4985330004433</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C43" t="n">
-        <v>250.5259698793593</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D43" t="n">
-        <v>87.20919700613</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E43" t="n">
-        <v>87.20919700613</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F43" t="n">
         <v>87.20919700613</v>
@@ -7593,28 +7593,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T43" t="n">
-        <v>1807.109215851466</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U43" t="n">
-        <v>1526.92476735177</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V43" t="n">
-        <v>1245.213299959799</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W43" t="n">
-        <v>970.3608961323123</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X43" t="n">
-        <v>727.7969995781174</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y43" t="n">
-        <v>501.4542312678594</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="44">
@@ -7654,19 +7654,19 @@
         <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>1165.320963798525</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>1374.699383006876</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N44" t="n">
-        <v>2350.950441493577</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O44" t="n">
-        <v>3196.095091644389</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P44" t="n">
-        <v>3904.374370802317</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q44" t="n">
         <v>4360.4598503065</v>
@@ -7724,19 +7724,19 @@
         <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J45" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K45" t="n">
-        <v>87.20919700613</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L45" t="n">
-        <v>87.20919700613</v>
+        <v>1793.637063898879</v>
       </c>
       <c r="M45" t="n">
-        <v>1143.195734982175</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="N45" t="n">
         <v>1895.89682758664</v>
@@ -7981,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>110.4525178970659</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M3" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8224,13 +8224,13 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>571.0335849150666</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8297,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733348</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>758.5002654165255</v>
@@ -8461,19 +8461,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>990.5494043751546</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>1023.391803124043</v>
+        <v>850.5546308803624</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>271.3630966537311</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>781.6471621574455</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8704,7 +8704,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>691.5123106689887</v>
+        <v>325.2461906519227</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8777,10 +8777,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>759.9390205422786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>1111.457990790167</v>
+        <v>305.2914855668482</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8789,7 +8789,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>834.8117991431438</v>
+        <v>325.2461906519227</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>759.9390205422786</v>
+        <v>669.6242757926666</v>
       </c>
       <c r="N15" t="n">
-        <v>1111.457990790167</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9491,13 +9491,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>97.48892355252579</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>765.1769988726438</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9725,16 +9725,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>220.6341467432656</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9965,19 +9965,19 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>691.705325606697</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10202,7 +10202,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>691.2775126154099</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10214,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10433,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823039</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10664,10 +10664,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>136.0326064801326</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>71.84891570906657</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>774.1253005797566</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11074,10 +11074,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>691.5123106689887</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>410.7643279227603</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11147,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>759.9390205422786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>1111.457990790167</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>478.0503598112608</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11302,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>248.9246156351402</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>325.2461906519227</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
-        <v>781.6471621574455</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>345.440299844201</v>
+        <v>331.8474274859566</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919185</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>214.0587429203167</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>316.1505655932366</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>348.1873080967526</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,22 +22992,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>160.9917581079251</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23023,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>310.4693100957534</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>105.8673664596319</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>132.3295297172725</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>75.13122289516463</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>402.7488832647057</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23427,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>71.98949189919269</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23466,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>154.375183808419</v>
+        <v>122.5005995148103</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.860506186134387</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.8510053776918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.29091348988666</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24612,16 +24612,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24888,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>44.20464122293444</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>252.2448521157858</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.7088052046616</v>
+        <v>107.5679663206411</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>119.8272812644555</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>119.827281264455</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448942.3074952711</v>
+        <v>448942.3074952713</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448942.3074952713</v>
+        <v>448942.3074952711</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>667466.5760535755</v>
+        <v>667466.5760535754</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>667466.5760535755</v>
+        <v>667466.5760535754</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744690.2841571177</v>
+        <v>744690.2841571176</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744690.2841571177</v>
+        <v>744690.2841571176</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744690.2841571177</v>
+        <v>744690.2841571176</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>744690.2841571177</v>
+        <v>744690.2841571176</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744690.2841571177</v>
+        <v>744690.2841571176</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>144000.3627815021</v>
+      </c>
+      <c r="C2" t="n">
         <v>144000.362781502</v>
       </c>
-      <c r="C2" t="n">
-        <v>144000.3627815021</v>
-      </c>
       <c r="D2" t="n">
-        <v>214093.0526964297</v>
+        <v>214093.0526964299</v>
       </c>
       <c r="E2" t="n">
         <v>214093.0526964298</v>
       </c>
       <c r="F2" t="n">
-        <v>214093.0526964299</v>
+        <v>214093.0526964298</v>
       </c>
       <c r="G2" t="n">
         <v>238862.9213334152</v>
@@ -26337,13 +26337,13 @@
         <v>238862.9213334151</v>
       </c>
       <c r="J2" t="n">
-        <v>238862.921333415</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="K2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="L2" t="n">
-        <v>238862.921333415</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="M2" t="n">
         <v>238862.9213334151</v>
@@ -26355,7 +26355,7 @@
         <v>214093.0526964298</v>
       </c>
       <c r="P2" t="n">
-        <v>214093.0526964297</v>
+        <v>214093.0526964298</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>710.8621518139971</v>
       </c>
       <c r="F4" t="n">
-        <v>710.8621518139972</v>
+        <v>710.8621518139971</v>
       </c>
       <c r="G4" t="n">
         <v>800.0602599433671</v>
@@ -26438,22 +26438,22 @@
         <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>710.8621518139971</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110309.0749209309</v>
+        <v>-110918.1206334206</v>
       </c>
       <c r="C6" t="n">
-        <v>76095.65849380635</v>
+        <v>75486.61278131665</v>
       </c>
       <c r="D6" t="n">
-        <v>-52365.76441712302</v>
+        <v>-52562.50018893653</v>
       </c>
       <c r="E6" t="n">
-        <v>147103.200819957</v>
+        <v>146906.4650481434</v>
       </c>
       <c r="F6" t="n">
-        <v>147103.2008199571</v>
+        <v>146906.4650481435</v>
       </c>
       <c r="G6" t="n">
-        <v>108601.4683548999</v>
+        <v>108550.4376927156</v>
       </c>
       <c r="H6" t="n">
-        <v>160312.7988850421</v>
+        <v>160261.7682228578</v>
       </c>
       <c r="I6" t="n">
-        <v>160312.7988850421</v>
+        <v>160261.7682228577</v>
       </c>
       <c r="J6" t="n">
-        <v>14779.12895022548</v>
+        <v>14728.09828804132</v>
       </c>
       <c r="K6" t="n">
-        <v>160312.7988850421</v>
+        <v>160261.7682228578</v>
       </c>
       <c r="L6" t="n">
-        <v>25190.76634080028</v>
+        <v>25139.73567861611</v>
       </c>
       <c r="M6" t="n">
-        <v>160312.798885042</v>
+        <v>160261.7682228578</v>
       </c>
       <c r="N6" t="n">
-        <v>160312.7988850421</v>
+        <v>160261.7682228578</v>
       </c>
       <c r="O6" t="n">
-        <v>147103.200819957</v>
+        <v>146906.4650481434</v>
       </c>
       <c r="P6" t="n">
-        <v>147103.200819957</v>
+        <v>146906.4650481434</v>
       </c>
     </row>
   </sheetData>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34944,13 +34944,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>533.7539620806206</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597932</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>722.7356646217162</v>
@@ -35181,19 +35181,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>953.1181414757228</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>986.1121802895968</v>
+        <v>813.2750080459164</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>760.3041339439038</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35424,7 +35424,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>654.1213513129646</v>
+        <v>287.8552312958986</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>736.8422400299506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>1090.114962576625</v>
+        <v>283.9484573533065</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>797.4208397871197</v>
+        <v>287.8552312958986</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>736.8422400299506</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="N15" t="n">
-        <v>1090.114962576625</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>727.745735973212</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107108</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>114.689578266591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>50.0780745042379</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37794,10 +37794,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>654.1213513129646</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>373.188966112529</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>736.8422400299506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>1090.114962576625</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>454.8784700890386</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>211.4933527357084</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>287.8552312958986</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
-        <v>760.3041339439038</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
